--- a/Car Documents/CarLoanPayment.xlsx
+++ b/Car Documents/CarLoanPayment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkalamshabaz\Documents\Personal\Car Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf33caca2f8f99ea/Desktop/PersonalDetail_WorkDc/Car Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F88AF5-2529-4D56-B1C7-056814EC4CFB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,13 +400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43344</v>
       </c>
@@ -428,7 +428,7 @@
         <v>8621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43374</v>
       </c>
@@ -439,7 +439,7 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43374</v>
       </c>
@@ -447,7 +447,7 @@
         <v>23127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43405</v>
       </c>
@@ -458,7 +458,7 @@
         <v>8169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43435</v>
       </c>
@@ -469,7 +469,7 @@
         <v>8317</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -480,7 +480,7 @@
         <v>8199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
@@ -491,7 +491,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43525</v>
       </c>
@@ -502,7 +502,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43556</v>
       </c>
@@ -513,7 +513,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43586</v>
       </c>
@@ -524,7 +524,7 @@
         <v>7703</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43617</v>
       </c>
@@ -535,7 +535,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43647</v>
       </c>
@@ -546,7 +546,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43678</v>
       </c>
@@ -557,7 +557,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43709</v>
       </c>
@@ -568,7 +568,7 @@
         <v>6956</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43739</v>
       </c>
@@ -579,7 +579,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43770</v>
       </c>
@@ -590,7 +590,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43800</v>
       </c>
@@ -601,7 +601,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43831</v>
       </c>
@@ -612,7 +612,7 @@
         <v>6651</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43862</v>
       </c>
@@ -623,7 +623,7 @@
         <v>6097</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43891</v>
       </c>
@@ -634,7 +634,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43922</v>
       </c>
@@ -645,7 +645,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43952</v>
       </c>
@@ -656,7 +656,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43983</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44013</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5813</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44044</v>
       </c>
@@ -689,7 +689,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44075</v>
       </c>
@@ -700,7 +700,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44105</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44136</v>
       </c>
@@ -722,7 +722,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44166</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44197</v>
       </c>
@@ -744,7 +744,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44228</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44256</v>
       </c>
@@ -766,7 +766,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44287</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44317</v>
       </c>
@@ -788,7 +788,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44348</v>
       </c>
@@ -799,7 +799,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44378</v>
       </c>
@@ -810,7 +810,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44409</v>
       </c>
@@ -821,7 +821,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44440</v>
       </c>
@@ -832,7 +832,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44470</v>
       </c>
@@ -843,7 +843,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44501</v>
       </c>
@@ -854,7 +854,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44531</v>
       </c>
@@ -865,7 +865,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44562</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44593</v>
       </c>
@@ -887,7 +887,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44621</v>
       </c>
@@ -895,94 +895,127 @@
         <v>23127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44652</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44682</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44713</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44743</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44774</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44805</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44835</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44896</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>23210</v>
+      </c>
+      <c r="C54">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44927</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>23210</v>
+      </c>
+      <c r="C55">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44958</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>23210</v>
+      </c>
+      <c r="C56">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44986</v>
       </c>
+      <c r="B57">
+        <v>23210</v>
+      </c>
+      <c r="C57">
+        <v>440</v>
+      </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45017</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>23210</v>
+      </c>
+      <c r="C58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45047</v>
       </c>
+      <c r="B59">
+        <v>23210</v>
+      </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61">
         <f>SUM(B2:B60)</f>
-        <v>1017461</v>
+        <v>1156721</v>
       </c>
       <c r="C61">
         <f>SUM(C2:C60)</f>
-        <v>236029</v>
+        <v>239008</v>
       </c>
     </row>
   </sheetData>

--- a/Car Documents/CarLoanPayment.xlsx
+++ b/Car Documents/CarLoanPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf33caca2f8f99ea/Desktop/PersonalDetail_WorkDc/Car Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F88AF5-2529-4D56-B1C7-056814EC4CFB}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29DAEF9-CEA9-4936-98B9-9AF7D98BBBD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,48 +896,99 @@
         <v>44621</v>
       </c>
       <c r="B45">
-        <v>23127</v>
+        <v>23210</v>
+      </c>
+      <c r="C45">
+        <v>2280</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44652</v>
       </c>
+      <c r="B46">
+        <v>23210</v>
+      </c>
+      <c r="C46">
+        <v>2061</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44682</v>
       </c>
+      <c r="B47">
+        <v>23210</v>
+      </c>
+      <c r="C47">
+        <v>1978</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44713</v>
       </c>
+      <c r="B48">
+        <v>23210</v>
+      </c>
+      <c r="C48">
+        <v>1767</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44743</v>
       </c>
+      <c r="B49">
+        <v>23210</v>
+      </c>
+      <c r="C49">
+        <v>1671</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44774</v>
       </c>
+      <c r="B50">
+        <v>23210</v>
+      </c>
+      <c r="C50">
+        <v>1561</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44805</v>
       </c>
+      <c r="B51">
+        <v>23210</v>
+      </c>
+      <c r="C51">
+        <v>1427</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44835</v>
       </c>
+      <c r="B52">
+        <v>23210</v>
+      </c>
+      <c r="C52">
+        <v>1305</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44866</v>
       </c>
+      <c r="B53">
+        <v>23210</v>
+      </c>
+      <c r="C53">
+        <v>1099</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -943,7 +998,7 @@
         <v>23210</v>
       </c>
       <c r="C54">
-        <v>936</v>
+        <v>963</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,11 +1066,11 @@
       </c>
       <c r="B61">
         <f>SUM(B2:B60)</f>
-        <v>1156721</v>
+        <v>1342484</v>
       </c>
       <c r="C61">
         <f>SUM(C2:C60)</f>
-        <v>239008</v>
+        <v>254184</v>
       </c>
     </row>
   </sheetData>

--- a/Car Documents/CarLoanPayment.xlsx
+++ b/Car Documents/CarLoanPayment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf33caca2f8f99ea/Desktop/PersonalDetail_WorkDc/Car Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B29DAEF9-CEA9-4936-98B9-9AF7D98BBBD3}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A795A458-023D-441E-8E22-E3C27FB0021A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Month</t>
   </si>
@@ -46,15 +46,35 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Bangalore@4</t>
+  </si>
+  <si>
+    <t>Ppass</t>
+  </si>
+  <si>
+    <t>Bangalore@2</t>
+  </si>
+  <si>
+    <t>Login Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,15 +97,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,13 +427,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +446,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43344</v>
       </c>
@@ -431,8 +463,14 @@
       <c r="C2">
         <v>8621</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43374</v>
       </c>
@@ -443,15 +481,18 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43374</v>
       </c>
       <c r="B4">
         <v>23127</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>4027900455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43405</v>
       </c>
@@ -462,7 +503,7 @@
         <v>8169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43435</v>
       </c>
@@ -473,7 +514,7 @@
         <v>8317</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -484,7 +525,7 @@
         <v>8199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
@@ -495,7 +536,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43525</v>
       </c>
@@ -506,7 +547,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43556</v>
       </c>
@@ -517,7 +558,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43586</v>
       </c>
@@ -528,7 +569,7 @@
         <v>7703</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43617</v>
       </c>
@@ -539,7 +580,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43647</v>
       </c>
@@ -550,7 +591,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43678</v>
       </c>
@@ -561,7 +602,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43709</v>
       </c>
@@ -572,7 +613,7 @@
         <v>6956</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43739</v>
       </c>
@@ -1053,6 +1094,9 @@
       <c r="B59">
         <v>23210</v>
       </c>
+      <c r="C59">
+        <v>84</v>
+      </c>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,11 +1114,15 @@
       </c>
       <c r="C61">
         <f>SUM(C2:C60)</f>
-        <v>254184</v>
+        <v>254268</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{A7B8E853-3C77-4564-83BF-9EF977039AF6}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{49BFC897-0E05-471C-A29F-723F792CA91C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Car Documents/CarLoanPayment.xlsx
+++ b/Car Documents/CarLoanPayment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf33caca2f8f99ea/Desktop/PersonalDetail_WorkDc/Car Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ccfeed1add71150/Desktop/PersonalDetail_WorkDc/Car Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A795A458-023D-441E-8E22-E3C27FB0021A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{AF822E72-8841-4182-8772-FCD8AF12AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A194E23-D1A1-4DF0-95EF-A2A12C587E51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Bangalore@4</t>
-  </si>
-  <si>
     <t>Ppass</t>
   </si>
   <si>
-    <t>Bangalore@2</t>
+    <t>Login Pass</t>
   </si>
   <si>
-    <t>Login Pass</t>
+    <t>Bangalore@3</t>
+  </si>
+  <si>
+    <t>Bangalore@5</t>
   </si>
 </sst>
 </file>
@@ -428,15 +428,15 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,13 +447,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43344</v>
       </c>
@@ -464,13 +464,13 @@
         <v>8621</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43374</v>
       </c>
@@ -481,7 +481,7 @@
         <v>8579</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43374</v>
       </c>
@@ -492,7 +492,7 @@
         <v>4027900455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43405</v>
       </c>
@@ -503,7 +503,7 @@
         <v>8169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43435</v>
       </c>
@@ -514,7 +514,7 @@
         <v>8317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -525,7 +525,7 @@
         <v>8199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
@@ -536,7 +536,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43525</v>
       </c>
@@ -547,7 +547,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43556</v>
       </c>
@@ -558,7 +558,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43586</v>
       </c>
@@ -569,7 +569,7 @@
         <v>7703</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43617</v>
       </c>
@@ -580,7 +580,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43647</v>
       </c>
@@ -591,7 +591,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43678</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7137</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43709</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6956</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43739</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43770</v>
       </c>
@@ -635,7 +635,7 @@
         <v>6699</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43800</v>
       </c>
@@ -646,7 +646,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43831</v>
       </c>
@@ -657,7 +657,7 @@
         <v>6651</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43862</v>
       </c>
@@ -668,7 +668,7 @@
         <v>6097</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43891</v>
       </c>
@@ -679,7 +679,7 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43922</v>
       </c>
@@ -690,7 +690,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43952</v>
       </c>
@@ -701,7 +701,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43983</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44013</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5813</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44044</v>
       </c>
@@ -734,7 +734,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44075</v>
       </c>
@@ -745,7 +745,7 @@
         <v>4658</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44105</v>
       </c>
@@ -756,7 +756,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44136</v>
       </c>
@@ -767,7 +767,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44166</v>
       </c>
@@ -778,7 +778,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44197</v>
       </c>
@@ -789,7 +789,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44228</v>
       </c>
@@ -800,7 +800,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44256</v>
       </c>
@@ -811,7 +811,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44287</v>
       </c>
@@ -822,7 +822,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44317</v>
       </c>
@@ -833,7 +833,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44348</v>
       </c>
@@ -844,7 +844,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44378</v>
       </c>
@@ -855,7 +855,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44409</v>
       </c>
@@ -866,7 +866,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44440</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44470</v>
       </c>
@@ -888,7 +888,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44501</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44531</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44562</v>
       </c>
@@ -921,7 +921,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44593</v>
       </c>
@@ -932,7 +932,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44621</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44652</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44682</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44713</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44743</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44774</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44805</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44835</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44866</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44896</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44927</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44958</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44986</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45017</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45047</v>
       </c>
@@ -1099,18 +1099,21 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45078</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61">
         <f>SUM(B2:B60)</f>
-        <v>1342484</v>
+        <v>1350484</v>
       </c>
       <c r="C61">
         <f>SUM(C2:C60)</f>
